--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.9441467544484</v>
+        <v>20286.88520413541</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.9441467544484</v>
+        <v>20286.88520413541</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>55052.77575691314</v>
+        <v>3849946.865679096</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55052.77575691314</v>
+        <v>3849946.865679096</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494911919.14317</v>
+        <v>57756595.61427076</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13636.77452587773</v>
+        <v>1329638.925004478</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26687.23091724684</v>
+        <v>2557578.816904515</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39737.44973285836</v>
+        <v>3785471.431228796</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55369.9542199132</v>
+        <v>4811567.511836747</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69795.32653825471</v>
+        <v>5964605.486253726</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84207.06093211834</v>
+        <v>7118724.627571907</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98623.80611027316</v>
+        <v>8272976.721699946</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113039.8831838559</v>
+        <v>9427095.863018125</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128676.0342914507</v>
+        <v>10453330.45940268</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>143104.3021415838</v>
+        <v>11606330.03616131</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157519.125020296</v>
+        <v>12760449.17747949</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>171933.9478990082</v>
+        <v>13914568.31879768</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186348.7707777204</v>
+        <v>15068687.46011587</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>200777.2315809104</v>
+        <v>16221725.43453286</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218194.7813942685</v>
+        <v>17018656.24792954</v>
       </c>
     </row>
   </sheetData>
